--- a/Data/Transitions/19581962Translation.xlsx
+++ b/Data/Transitions/19581962Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="602">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1715,9 +1715,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3833,7 +3830,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>567</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3844,7 +3841,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4053,7 +4050,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4383,7 +4380,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4427,7 +4424,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4570,7 +4567,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>567</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4944,7 +4941,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5054,7 +5051,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5098,7 +5095,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5307,7 +5304,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5417,7 +5414,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5582,7 +5579,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5615,7 +5612,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5637,7 +5634,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5648,7 +5645,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5692,7 +5689,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5813,7 +5810,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5846,7 +5843,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6022,7 +6019,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6044,7 +6041,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6055,7 +6052,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6154,7 +6151,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6374,7 +6371,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6385,7 +6382,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6781,7 +6778,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7166,7 +7163,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7221,7 +7218,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7298,7 +7295,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7485,7 +7482,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7518,7 +7515,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7562,7 +7559,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7760,7 +7757,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7881,7 +7878,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8024,7 +8021,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8046,7 +8043,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8057,7 +8054,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8101,7 +8098,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="539" spans="1:3">
